--- a/document/Files/Templates_SonNT.xlsx
+++ b/document/Files/Templates_SonNT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="20340" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="20340" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Thong tin SV" sheetId="1" r:id="rId1"/>
@@ -909,15 +909,36 @@
     <xf numFmtId="164" fontId="9" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,12 +975,6 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,21 +997,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1373,7 +1373,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2301,90 +2301,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="35"/>
+      <c r="Z1" s="44"/>
       <c r="AA1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="59"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="8" t="s">
         <v>133</v>
       </c>
@@ -2403,11 +2403,11 @@
       <c r="S2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="49"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="10" t="s">
         <v>135</v>
       </c>
@@ -2650,11 +2650,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:S1"/>
@@ -2670,6 +2665,11 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G6">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>

--- a/document/Files/Templates_SonNT.xlsx
+++ b/document/Files/Templates_SonNT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="20340" windowHeight="7815" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="20340" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Thong tin SV" sheetId="1" r:id="rId1"/>
@@ -909,6 +909,81 @@
     <xf numFmtId="164" fontId="9" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,81 +997,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1670,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2281,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2301,90 +2301,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47" t="s">
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="V1" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="55" t="s">
+      <c r="X1" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="44"/>
+      <c r="Z1" s="35"/>
       <c r="AA1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="64"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="8" t="s">
         <v>133</v>
       </c>
@@ -2403,11 +2403,11 @@
       <c r="S2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="56"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="49"/>
       <c r="Y2" s="10" t="s">
         <v>135</v>
       </c>
@@ -2650,6 +2650,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:S1"/>
@@ -2665,11 +2670,6 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G6">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>

--- a/document/Files/Templates_SonNT.xlsx
+++ b/document/Files/Templates_SonNT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="20340" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="20340" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Thong tin SV" sheetId="1" r:id="rId1"/>
@@ -909,15 +909,36 @@
     <xf numFmtId="164" fontId="9" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,12 +975,6 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,21 +997,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1369,7 +1369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2281,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
@@ -2301,90 +2301,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="X1" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="35"/>
+      <c r="Z1" s="44"/>
       <c r="AA1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="59"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="8" t="s">
         <v>133</v>
       </c>
@@ -2403,11 +2403,11 @@
       <c r="S2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="49"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="56"/>
       <c r="Y2" s="10" t="s">
         <v>135</v>
       </c>
@@ -2650,11 +2650,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:S1"/>
@@ -2670,6 +2665,11 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G6">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
